--- a/الموظفون.xlsx
+++ b/الموظفون.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -11,12 +11,12 @@
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>ت</t>
   </si>
@@ -274,30 +274,33 @@
   </si>
   <si>
     <t>صادق خلف محمد</t>
+  </si>
+  <si>
+    <t>حسام خالد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -322,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -389,11 +392,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -410,11 +424,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -429,22 +462,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -516,18 +533,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="الجدول2" displayName="الجدول2" ref="A1:B85" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="الجدول2" displayName="الجدول2" ref="A1:B86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B86"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ت" dataDxfId="0">
+    <tableColumn id="1" name="ت" dataDxfId="1">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="الاسماء " dataDxfId="1"/>
+    <tableColumn id="2" name="الاسماء " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,9 +629,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,6 +681,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,19 +874,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -840,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f t="shared" ref="A2:A65" si="0">ROW()-1</f>
         <v>1</v>
@@ -849,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -858,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -867,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -876,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -885,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -894,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -903,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -912,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -921,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -930,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -939,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -948,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -957,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -966,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -975,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -984,7 +1038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -993,7 +1047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1002,7 +1056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1011,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1020,7 +1074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1029,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1038,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1047,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1056,7 +1110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1065,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1074,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1083,7 +1137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1092,7 +1146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1101,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1110,7 +1164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1119,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1128,7 +1182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1137,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1146,7 +1200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1155,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1164,7 +1218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1173,7 +1227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1182,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1191,7 +1245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1200,7 +1254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1209,7 +1263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1218,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1227,7 +1281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1236,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1245,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1254,7 +1308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1263,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1272,7 +1326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1281,7 +1335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1290,7 +1344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1299,7 +1353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1308,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1317,7 +1371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1326,7 +1380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1335,7 +1389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1344,7 +1398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1353,7 +1407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1362,7 +1416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1371,7 +1425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1380,7 +1434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1389,7 +1443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1398,7 +1452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1407,7 +1461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1416,7 +1470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <f t="shared" ref="A66:A85" si="1">ROW()-1</f>
         <v>65</v>
@@ -1425,7 +1479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1434,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -1443,7 +1497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1452,7 +1506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1461,7 +1515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1470,7 +1524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1479,7 +1533,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1488,7 +1542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1497,7 +1551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1506,7 +1560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1515,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1524,7 +1578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1533,7 +1587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1542,7 +1596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1551,7 +1605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1560,7 +1614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1569,7 +1623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1578,7 +1632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1587,20 +1641,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <f>ROW()-1</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1611,7 +1675,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1623,7 +1687,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
